--- a/Systemtechnikprojekt/Systemtechnikprojekt/01 Organisation/02 Meilensteine/m1/m1a/SysP18-Team10-IST-Zeitplan_v1_2017-10-13.xlsx
+++ b/Systemtechnikprojekt/Systemtechnikprojekt/01 Organisation/02 Meilensteine/m1/m1a/SysP18-Team10-IST-Zeitplan_v1_2017-10-13.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luz_w\Dropbox\Systemtechnikprojekt\Systemtechnikprojekt\01 Organisation\02 Meilensteine\m1\m1A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luz_w\Documents\Schule\GitHub\SysP18_1cv\Systemtechnikprojekt\Systemtechnikprojekt\01 Organisation\02 Meilensteine\m1\m1a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1725,8 +1725,8 @@
   </sheetPr>
   <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A5" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A6" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2977,12 +2977,12 @@
         <v>2</v>
       </c>
       <c r="M22" s="77">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N22" s="54"/>
       <c r="O22" s="64">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -3091,7 +3091,7 @@
       <c r="N24" s="54"/>
       <c r="O24" s="80">
         <f>SUM(O17:O23)</f>
-        <v>32.5</v>
+        <v>38.5</v>
       </c>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="C57" s="131">
         <f>SUM(I14+O24+AB33+AI40+AP46+AS51)</f>
-        <v>209.5</v>
+        <v>215.5</v>
       </c>
       <c r="D57" s="132"/>
       <c r="I57" s="42"/>

--- a/Systemtechnikprojekt/Systemtechnikprojekt/01 Organisation/02 Meilensteine/m1/m1a/SysP18-Team10-IST-Zeitplan_v1_2017-10-13.xlsx
+++ b/Systemtechnikprojekt/Systemtechnikprojekt/01 Organisation/02 Meilensteine/m1/m1a/SysP18-Team10-IST-Zeitplan_v1_2017-10-13.xlsx
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:AT60"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A6" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3035,11 +3035,11 @@
         <v>1</v>
       </c>
       <c r="N23" s="79">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O23" s="64">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -3091,7 +3091,7 @@
       <c r="N24" s="54"/>
       <c r="O24" s="80">
         <f>SUM(O17:O23)</f>
-        <v>38.5</v>
+        <v>51.5</v>
       </c>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="C57" s="131">
         <f>SUM(I14+O24+AB33+AI40+AP46+AS51)</f>
-        <v>215.5</v>
+        <v>228.5</v>
       </c>
       <c r="D57" s="132"/>
       <c r="I57" s="42"/>
